--- a/PE loop sample 5/Sample B/Unnormalized_Pmax_Sample_5B_5Hz.xlsx
+++ b/PE loop sample 5/Sample B/Unnormalized_Pmax_Sample_5B_5Hz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,145 +444,220 @@
           <t>Unnormalized P_max</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Electrode Locations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>C10_bipolar_10V_5Hz.txt</t>
+          <t>C3_bipolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>92.442334</v>
+        <v>104.107638</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>C13_bipolar_10V_5Hz.txt</t>
+          <t>C6_bipolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>87.82990700000001</v>
+        <v>124.69703</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>C6</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C3_bipolar_10V_5Hz.txt</t>
+          <t>C8_bipolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>104.107638</v>
+        <v>106.420917</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>C8</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>C6_bipolar_10V_5Hz.txt</t>
+          <t>C10_bipolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>124.69703</v>
+        <v>92.442334</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>C10</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>C8_bipolar_10V_5Hz.txt</t>
+          <t>C13_bipolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>106.420917</v>
+        <v>87.82990700000001</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>C13</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>E12_bipolar_10V_5Hz.txt</t>
+          <t>E3_bipolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>82.462535</v>
+        <v>94.834337</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>E3</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>E13_bipolar_10V_5Hz.txt</t>
+          <t>E12_bipolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>87.442342</v>
+        <v>82.462535</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>E12</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>E15_bipolar_10V_5Hz.txt</t>
+          <t>E13_bipolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>77.27683399999999</v>
+        <v>87.442342</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>E13</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>E3_bipolar_10V_5Hz.txt</t>
+          <t>E15_bipolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>94.834337</v>
+        <v>77.27683399999999</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>E15</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>G10_bipolar_10V_5Hz.txt</t>
+          <t>G1_bipolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>84.039036</v>
+        <v>70.829528</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>G15_bipolar_10V_5Hz.txt</t>
+          <t>G3_bipolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>70.026138</v>
+        <v>75.898152</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>G1_bipolar_10V_5Hz.txt</t>
+          <t>G5_bipolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>70.829528</v>
+        <v>83.29216599999999</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>G5</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>G3_bipolar_10V_5Hz.txt</t>
+          <t>G10_bipolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>75.898152</v>
+        <v>84.039036</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>G10</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>G5_bipolar_10V_5Hz.txt</t>
+          <t>G15_bipolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>83.29216599999999</v>
+        <v>70.026138</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>G15</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -594,6 +669,11 @@
       <c r="B16" t="n">
         <v>78.346675</v>
       </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>H14</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -604,6 +684,11 @@
       <c r="B17" t="n">
         <v>95.779027</v>
       </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>I12</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -614,95 +699,145 @@
       <c r="B18" t="n">
         <v>99.111682</v>
       </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>I13</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>K13_bipolar_10V_5Hz.txt</t>
+          <t>K1_bipolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.93812200000001</v>
+        <v>80.982924</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>K1</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>K1_bipolar_10V_5Hz.txt</t>
+          <t>K5_bipolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>80.982924</v>
+        <v>86.420946</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>K5</t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>K5_bipolar_10V_5Hz.txt</t>
+          <t>K13_bipolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>86.420946</v>
+        <v>73.93812200000001</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>K13</t>
+        </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>M10_bipolar_10V_5Hz.txt</t>
+          <t>M8_bipolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>82.83597</v>
+        <v>94.949395</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>M8</t>
+        </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>M12_bipolar_10V_5Hz.txt</t>
+          <t>M10_bipolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>84.236856</v>
+        <v>82.83597</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>M10</t>
+        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>M8_bipolar_10V_5Hz.txt</t>
+          <t>M12_bipolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>94.949395</v>
+        <v>84.236856</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>M12</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>O10_bipolar_10V_5Hz.txt</t>
+          <t>O4_bipolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>115.554936</v>
+        <v>97.22633999999999</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>O4</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>O4_bipolar_10V_5Hz.txt</t>
+          <t>O8_bipolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>97.22633999999999</v>
+        <v>122.236396</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>O8</t>
+        </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>O8_bipolar_10V_5Hz.txt</t>
+          <t>O10_bipolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>122.236396</v>
+        <v>115.554936</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>O10</t>
+        </is>
       </c>
     </row>
   </sheetData>
